--- a/monitoring_sample.xlsx
+++ b/monitoring_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="file_monitoring" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -739,8 +739,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/monitoring_sample.xlsx
+++ b/monitoring_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="file_monitoring" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Batch ID</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>Time Taken</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Orphans</t>
+  </si>
+  <si>
+    <t>Untagged</t>
   </si>
 </sst>
 </file>
@@ -728,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,10 +749,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +766,7 @@
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>376</v>
       </c>
@@ -827,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>377</v>
       </c>
@@ -862,7 +874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,23 +906,53 @@
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>44102.186111111114</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -973,9 +1015,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
